--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>252.1092635563976</v>
+        <v>389.1815050714126</v>
       </c>
       <c r="R2">
-        <v>2268.983372007578</v>
+        <v>3502.633545642714</v>
       </c>
       <c r="S2">
-        <v>0.008215762833219363</v>
+        <v>0.007461677457315597</v>
       </c>
       <c r="T2">
-        <v>0.008215762833219361</v>
+        <v>0.007461677457315595</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
-        <v>252.8537494571102</v>
+        <v>271.7930650555893</v>
       </c>
       <c r="R3">
-        <v>2275.683745113992</v>
+        <v>2446.137585500304</v>
       </c>
       <c r="S3">
-        <v>0.008240024216980705</v>
+        <v>0.005211018920870531</v>
       </c>
       <c r="T3">
-        <v>0.008240024216980701</v>
+        <v>0.005211018920870531</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>178.6951489512566</v>
+        <v>774.0196718762811</v>
       </c>
       <c r="R4">
-        <v>1608.256340561309</v>
+        <v>6966.177046886531</v>
       </c>
       <c r="S4">
-        <v>0.005823336050886166</v>
+        <v>0.01484008120092524</v>
       </c>
       <c r="T4">
-        <v>0.005823336050886165</v>
+        <v>0.01484008120092524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>9.120952105577222</v>
+        <v>10.93796289826733</v>
       </c>
       <c r="R5">
-        <v>82.08856895019501</v>
+        <v>98.44166608440599</v>
       </c>
       <c r="S5">
-        <v>0.0002972345333745023</v>
+        <v>0.000209710765088849</v>
       </c>
       <c r="T5">
-        <v>0.0002972345333745022</v>
+        <v>0.000209710765088849</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>274.8083941766091</v>
+        <v>803.0849694529926</v>
       </c>
       <c r="R6">
-        <v>2473.275547589482</v>
+        <v>7227.764725076933</v>
       </c>
       <c r="S6">
-        <v>0.008955484456555141</v>
+        <v>0.015397342717447</v>
       </c>
       <c r="T6">
-        <v>0.008955484456555139</v>
+        <v>0.015397342717447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>5549.651791331993</v>
+        <v>7970.03357052338</v>
       </c>
       <c r="R7">
-        <v>49946.86612198794</v>
+        <v>71730.30213471042</v>
       </c>
       <c r="S7">
-        <v>0.1808526282666127</v>
+        <v>0.1528074151835927</v>
       </c>
       <c r="T7">
-        <v>0.1808526282666127</v>
+        <v>0.1528074151835927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
         <v>5566.040072564615</v>
@@ -948,10 +948,10 @@
         <v>50094.36065308154</v>
       </c>
       <c r="S8">
-        <v>0.1813866912754525</v>
+        <v>0.1067162627071648</v>
       </c>
       <c r="T8">
-        <v>0.1813866912754525</v>
+        <v>0.1067162627071648</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>3933.595455756957</v>
+        <v>15851.12007819457</v>
       </c>
       <c r="R9">
-        <v>35402.35910181262</v>
+        <v>142660.0807037512</v>
       </c>
       <c r="S9">
-        <v>0.1281884167620008</v>
+        <v>0.3039094710807599</v>
       </c>
       <c r="T9">
-        <v>0.1281884167620008</v>
+        <v>0.3039094710807598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>200.778454061235</v>
+        <v>223.998135462099</v>
       </c>
       <c r="R10">
-        <v>1807.006086551115</v>
+        <v>2015.983219158891</v>
       </c>
       <c r="S10">
-        <v>0.006542989088612077</v>
+        <v>0.004294658960095178</v>
       </c>
       <c r="T10">
-        <v>0.006542989088612078</v>
+        <v>0.004294658960095178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>6049.325104129385</v>
+        <v>16446.34722646601</v>
       </c>
       <c r="R11">
-        <v>54443.92593716447</v>
+        <v>148017.1250381941</v>
       </c>
       <c r="S11">
-        <v>0.1971360340174452</v>
+        <v>0.315321608955668</v>
       </c>
       <c r="T11">
-        <v>0.1971360340174452</v>
+        <v>0.315321608955668</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N12">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q12">
-        <v>1023.228251852897</v>
+        <v>262.458470076488</v>
       </c>
       <c r="R12">
-        <v>9209.054266676076</v>
+        <v>2362.126230688392</v>
       </c>
       <c r="S12">
-        <v>0.03334506841551451</v>
+        <v>0.005032049118808764</v>
       </c>
       <c r="T12">
-        <v>0.0333450684155145</v>
+        <v>0.005032049118808763</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q13">
-        <v>1026.249874287429</v>
+        <v>183.293376232768</v>
       </c>
       <c r="R13">
-        <v>9236.248868586863</v>
+        <v>1649.640386094912</v>
       </c>
       <c r="S13">
-        <v>0.03344353736085771</v>
+        <v>0.003514237022286941</v>
       </c>
       <c r="T13">
-        <v>0.0334435373608577</v>
+        <v>0.003514237022286941</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N14">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q14">
-        <v>725.2646027228755</v>
+        <v>521.9878546193439</v>
       </c>
       <c r="R14">
-        <v>6527.381424505878</v>
+        <v>4697.890691574095</v>
       </c>
       <c r="S14">
-        <v>0.02363499810853737</v>
+        <v>0.01000793962984186</v>
       </c>
       <c r="T14">
-        <v>0.02363499810853737</v>
+        <v>0.01000793962984185</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N15">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q15">
-        <v>37.01893276974334</v>
+        <v>7.376406562552</v>
       </c>
       <c r="R15">
-        <v>333.17039492769</v>
+        <v>66.387659062968</v>
       </c>
       <c r="S15">
-        <v>0.001206376821243091</v>
+        <v>0.000141425956389396</v>
       </c>
       <c r="T15">
-        <v>0.001206376821243091</v>
+        <v>0.0001414259563893959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N16">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q16">
-        <v>1115.356527567382</v>
+        <v>541.589077788728</v>
       </c>
       <c r="R16">
-        <v>10038.20874810644</v>
+        <v>4874.301700098552</v>
       </c>
       <c r="S16">
-        <v>0.03634735422138428</v>
+        <v>0.01038374886834091</v>
       </c>
       <c r="T16">
-        <v>0.03634735422138428</v>
+        <v>0.01038374886834091</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N17">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q17">
-        <v>110.3805344602515</v>
+        <v>309.2906542414291</v>
       </c>
       <c r="R17">
-        <v>993.4248101422638</v>
+        <v>2783.615888172862</v>
       </c>
       <c r="S17">
-        <v>0.003597092307266831</v>
+        <v>0.005929950607720145</v>
       </c>
       <c r="T17">
-        <v>0.003597092307266831</v>
+        <v>0.005929950607720143</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q18">
-        <v>110.7064913507662</v>
+        <v>215.999614097544</v>
       </c>
       <c r="R18">
-        <v>996.3584221568958</v>
+        <v>1943.996526877896</v>
       </c>
       <c r="S18">
-        <v>0.003607714624227917</v>
+        <v>0.004141305355722829</v>
       </c>
       <c r="T18">
-        <v>0.003607714624227917</v>
+        <v>0.004141305355722828</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N19">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q19">
-        <v>78.23776789654355</v>
+        <v>615.129567029202</v>
       </c>
       <c r="R19">
-        <v>704.1399110688919</v>
+        <v>5536.166103262818</v>
       </c>
       <c r="S19">
-        <v>0.002549620496172975</v>
+        <v>0.01179372185938764</v>
       </c>
       <c r="T19">
-        <v>0.002549620496172975</v>
+        <v>0.01179372185938764</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N20">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q20">
-        <v>3.993409658962222</v>
+        <v>8.692627107891001</v>
       </c>
       <c r="R20">
-        <v>35.94068693066</v>
+        <v>78.23364397101902</v>
       </c>
       <c r="S20">
-        <v>0.000130137648220854</v>
+        <v>0.000166661516260643</v>
       </c>
       <c r="T20">
-        <v>0.000130137648220854</v>
+        <v>0.000166661516260643</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N21">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q21">
-        <v>120.3188530063351</v>
+        <v>638.2283648550991</v>
       </c>
       <c r="R21">
-        <v>1082.869677057016</v>
+        <v>5744.055283695891</v>
       </c>
       <c r="S21">
-        <v>0.003920963262993701</v>
+        <v>0.01223658920221515</v>
       </c>
       <c r="T21">
-        <v>0.003920963262993701</v>
+        <v>0.01223658920221514</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N22">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q22">
-        <v>1060.016626505944</v>
+        <v>94.61626943121344</v>
       </c>
       <c r="R22">
-        <v>9540.149638553499</v>
+        <v>851.546424880921</v>
       </c>
       <c r="S22">
-        <v>0.03454393178493385</v>
+        <v>0.001814053534174595</v>
       </c>
       <c r="T22">
-        <v>0.03454393178493385</v>
+        <v>0.001814053534174595</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q23">
-        <v>1063.146886068097</v>
+        <v>66.07725582467287</v>
       </c>
       <c r="R23">
-        <v>9568.321974612873</v>
+        <v>594.695302422056</v>
       </c>
       <c r="S23">
-        <v>0.03464594100826138</v>
+        <v>0.001266882325607343</v>
       </c>
       <c r="T23">
-        <v>0.03464594100826138</v>
+        <v>0.001266882325607343</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N24">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q24">
-        <v>751.3402176985634</v>
+        <v>188.1766036283442</v>
       </c>
       <c r="R24">
-        <v>6762.06195928707</v>
+        <v>1693.589432655098</v>
       </c>
       <c r="S24">
-        <v>0.02448475295430753</v>
+        <v>0.003607861892178513</v>
       </c>
       <c r="T24">
-        <v>0.02448475295430753</v>
+        <v>0.003607861892178512</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N25">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q25">
-        <v>38.3498834794439</v>
+        <v>2.659194311973222</v>
       </c>
       <c r="R25">
-        <v>345.148951314995</v>
+        <v>23.932748807759</v>
       </c>
       <c r="S25">
-        <v>0.001249749981036399</v>
+        <v>5.098405241182143E-05</v>
       </c>
       <c r="T25">
-        <v>0.001249749981036399</v>
+        <v>5.098405241182142E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N26">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q26">
-        <v>1155.457212564663</v>
+        <v>195.2428439064168</v>
       </c>
       <c r="R26">
-        <v>10399.11491308196</v>
+        <v>1757.185595157751</v>
       </c>
       <c r="S26">
-        <v>0.03765415950390254</v>
+        <v>0.003743341109725592</v>
       </c>
       <c r="T26">
-        <v>0.03765415950390254</v>
+        <v>0.003743341109725591</v>
       </c>
     </row>
   </sheetData>
